--- a/public/templates/拆分部件批导模板V1.0.xlsx
+++ b/public/templates/拆分部件批导模板V1.0.xlsx
@@ -77,12 +77,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +110,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -119,45 +156,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,13 +177,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -187,44 +186,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,6 +207,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -247,17 +240,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -276,187 +269,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,43 +478,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,16 +512,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,165 +541,185 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1114,7 +1107,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1187,6 +1180,11 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F$1:F$1048576">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/public/templates/拆分部件批导模板V1.0.xlsx
+++ b/public/templates/拆分部件批导模板V1.0.xlsx
@@ -66,7 +66,8 @@
     <t>报告编号</t>
   </si>
   <si>
-    <t>报告日期</t>
+    <t>报告日期
+(YYYY-MM-DD)</t>
   </si>
   <si>
     <t>有效截止日期</t>
@@ -77,9 +78,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -111,29 +112,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,6 +195,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -156,37 +219,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,53 +254,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -269,145 +270,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,37 +450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,15 +509,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -535,8 +527,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,6 +539,15 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -570,8 +571,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,10 +582,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,137 +594,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -752,6 +753,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1107,7 +1111,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1172,10 +1176,10 @@
       <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>16</v>
       </c>
     </row>

--- a/public/templates/拆分部件批导模板V1.0.xlsx
+++ b/public/templates/拆分部件批导模板V1.0.xlsx
@@ -57,10 +57,9 @@
     <t>测试机构</t>
   </si>
   <si>
-    <t xml:space="preserve">测试结论 
+    <t>测试结论 
 (true-通过)
-(false-不通过))
-</t>
+(false-不通过)</t>
   </si>
   <si>
     <t>报告编号</t>
@@ -79,9 +78,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -112,7 +111,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,15 +134,43 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,14 +193,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,16 +207,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,52 +231,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -248,10 +240,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -270,37 +269,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,49 +407,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,91 +431,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,17 +478,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,37 +519,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,6 +552,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -582,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,133 +593,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -749,7 +748,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1111,7 +1110,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1185,7 +1184,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F1048576">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>
